--- a/Documentation/DB Administration Checklists/Import excel to MySQL.xlsx
+++ b/Documentation/DB Administration Checklists/Import excel to MySQL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView minimized="1" xWindow="24520" yWindow="13360" windowWidth="25600" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Final Review</t>
   </si>
@@ -108,6 +108,89 @@
   <si>
     <t>Index.html line #</t>
   </si>
+  <si>
+    <t>Open phpMyAdmin</t>
+  </si>
+  <si>
+    <t>Click on the Database Schema you will be using, (shown on left)</t>
+  </si>
+  <si>
+    <t>Click on Import at the top of the page.</t>
+  </si>
+  <si>
+    <t>Select Format CSV from the drop down menu</t>
+  </si>
+  <si>
+    <r>
+      <t>Type the Chart Name Here</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FARM CHART</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Select "</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Windows Comma Separated" CSV</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From Excel, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Save As</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Type the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chartname.cs</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v in the "Save As" file name field.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -117,7 +200,7 @@
     <numFmt numFmtId="164" formatCode="m/d;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +365,13 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -944,8 +1034,8 @@
   </sheetPr>
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="F3" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="L14" sqref="L13:L14"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="K3" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1107,7 +1197,9 @@
       <c r="I7" s="49"/>
       <c r="J7" s="45"/>
       <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
+      <c r="L7" s="45" t="s">
+        <v>23</v>
+      </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
@@ -1127,7 +1219,9 @@
       <c r="I8" s="49"/>
       <c r="J8" s="45"/>
       <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
+      <c r="L8" s="45" t="s">
+        <v>24</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
@@ -1147,7 +1241,9 @@
       <c r="I9" s="49"/>
       <c r="J9" s="45"/>
       <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
+      <c r="L9" s="45" t="s">
+        <v>25</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
@@ -1167,7 +1263,9 @@
       <c r="I10" s="49"/>
       <c r="J10" s="45"/>
       <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
+      <c r="L10" s="45" t="s">
+        <v>26</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
@@ -1187,7 +1285,9 @@
       <c r="I11" s="49"/>
       <c r="J11" s="45"/>
       <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
+      <c r="L11" s="45" t="s">
+        <v>27</v>
+      </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
@@ -1207,7 +1307,9 @@
       <c r="I12" s="49"/>
       <c r="J12" s="45"/>
       <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
+      <c r="L12" s="45" t="s">
+        <v>29</v>
+      </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
@@ -1227,7 +1329,9 @@
       <c r="I13" s="49"/>
       <c r="J13" s="45"/>
       <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
+      <c r="L13" s="45" t="s">
+        <v>28</v>
+      </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
@@ -1247,7 +1351,9 @@
       <c r="I14" s="49"/>
       <c r="J14" s="45"/>
       <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
+      <c r="L14" s="45" t="s">
+        <v>30</v>
+      </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
